--- a/hardware/parts/Selected ICs.xlsx
+++ b/hardware/parts/Selected ICs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C5AC0-F85F-4370-AF55-1EC9738F944A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B85BDE-DAF2-4551-BCEE-D63C467B03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11028" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Comment</t>
   </si>
@@ -59,18 +59,6 @@
     <t>Main MCU</t>
   </si>
   <si>
-    <t>MPL3115A2R1</t>
-  </si>
-  <si>
-    <t>NXP Semicon</t>
-  </si>
-  <si>
-    <t>LGA-8_3x5mm</t>
-  </si>
-  <si>
-    <t>C54429</t>
-  </si>
-  <si>
     <t>Altimeter</t>
   </si>
   <si>
@@ -225,6 +213,27 @@
   </si>
   <si>
     <t>26 MHz Oscillator</t>
+  </si>
+  <si>
+    <t>LPS25HBTR</t>
+  </si>
+  <si>
+    <t>C87898</t>
+  </si>
+  <si>
+    <t>HLGA-10L</t>
+  </si>
+  <si>
+    <t>1981568-1</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>USB Micro B</t>
+  </si>
+  <si>
+    <t>USB Connector</t>
   </si>
 </sst>
 </file>
@@ -302,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -311,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,18 +638,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -660,234 +673,254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://lcsc.com/product-detail/Pressure-Sensors_STMicroelectronics-LPS25HBTR_C87898.html/?href=jlc-SMT" xr:uid="{5F7028D5-7B4F-46E4-9EA6-394236A8C9A5}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{3E7EEECD-C044-474C-86EA-875DBC6ABA23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>